--- a/data/trans_dic/CONS_COR-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_COR-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,12 +633,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -647,12 +648,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -662,12 +663,12 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -685,54 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 0,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 2,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>0; 0,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,19</t>
+          <t>0; 0,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 0,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0; 0,35</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,12 +743,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -757,32 +758,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>0,22%</t>
         </is>
       </c>
     </row>
@@ -795,54 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 0,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 1,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>0; 0,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,68</t>
+          <t>0,0; 1,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 0,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,37</t>
+          <t>0,0; 0,74</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,83%</t>
         </is>
       </c>
     </row>
@@ -905,54 +906,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>0,28; 2,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,33; 3,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>0,0; 1,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>0,18; 1,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,32; 2,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>0,52; 3,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>0,32; 1,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,47; 2,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>0,37; 1,83</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>1,42%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1016,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>2,14; 4,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>0,61; 4,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0,76; 3,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>0,34; 1,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,04</t>
+          <t>0,6; 2,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,77</t>
+          <t>0,34; 3,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>1,41; 2,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,28</t>
+          <t>0,85; 3,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,46</t>
+          <t>0,78; 2,55</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,13%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>5,75%</t>
         </is>
       </c>
     </row>
@@ -1125,54 +1126,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>7,89; 13,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>5,31; 10,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,5</t>
+          <t>5,5; 10,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,05</t>
+          <t>1,35; 3,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,56</t>
+          <t>3,52; 7,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,69</t>
+          <t>2,25; 6,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,26</t>
+          <t>4,72; 7,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,8</t>
+          <t>4,83; 8,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,95</t>
+          <t>4,34; 7,59</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1182,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>17,18%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>13,87%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>15,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>11,85%</t>
         </is>
       </c>
     </row>
@@ -1235,54 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,47</t>
+          <t>14,17; 20,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,09; 1,88</t>
+          <t>10,14; 18,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,39; 2,05</t>
+          <t>12,11; 18,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,65</t>
+          <t>6,46; 10,62</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,56</t>
+          <t>1,2; 7,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,78</t>
+          <t>6,58; 11,38</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,62</t>
+          <t>10,88; 14,59</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,33</t>
+          <t>3,09; 10,87</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,48; 1,54</t>
+          <t>9,94; 14,15</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1292,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>28,6%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>24,27%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>25,61%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>21,64%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>21,43%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>25,46%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>24,56%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>22,55%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>25,52%</t>
         </is>
       </c>
     </row>
@@ -1345,54 +1346,54 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,78; 3,26</t>
+          <t>24,37; 32,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,43; 5,54</t>
+          <t>19,64; 30,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,17; 4,41</t>
+          <t>21,93; 30,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,39; 2,68</t>
+          <t>18,82; 25,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,89; 2,32</t>
+          <t>17,42; 25,55</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,56; 1,89</t>
+          <t>21,9; 29,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,36</t>
+          <t>22,3; 26,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,91; 3,61</t>
+          <t>19,63; 25,76</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,57; 2,88</t>
+          <t>22,79; 28,32</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1402,47 +1403,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>10,56%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>5,85%</t>
         </is>
       </c>
     </row>
@@ -1455,398 +1456,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,8; 11,21</t>
+          <t>8,3; 10,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,69; 9,91</t>
+          <t>3,59; 6,43</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8,57; 12,95</t>
+          <t>5,33; 6,98</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,33; 6,41</t>
+          <t>5,06; 6,55</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,23; 6,02</t>
+          <t>3,22; 5,29</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,79; 3,73</t>
+          <t>4,89; 6,47</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,47; 7,71</t>
+          <t>6,83; 8,05</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,76; 7,27</t>
+          <t>3,85; 5,7</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,23; 7,53</t>
+          <t>5,35; 6,48</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>15,07%</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>13,03%</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>16,8%</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>9,13%</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>6,59%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>7,39%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>12,37%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>9,27%</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>12,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>12,3; 18,15</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>10,48; 16,14</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>14,51; 19,75</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>6,78; 12,09</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>3,65; 9,22</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>6,01; 9,48</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>10,41; 14,34</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>6,14; 11,11</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>10,39; 13,64</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>26,63%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>23,64%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>29,58%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>25,94%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>24,45%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>23,08%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>26,27%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>24,13%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>25,78%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>22,92; 30,77</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>20,04; 27,88</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>25,84; 33,49</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>22,64; 30,02</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>21,49; 27,3</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>20,19; 25,84</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>23,52; 28,89</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>21,66; 26,78</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>23,55; 27,99</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>8,73%</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>5,88%</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>8,17%</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>7,2%</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>5,24%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>5,36%</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>7,96%</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>5,54%</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>6,72%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>7,76; 9,73</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>5,15; 6,64</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>7,42; 8,95</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>6,27; 8,25</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>4,61; 5,86</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>4,82; 5,97</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>7,32; 8,7</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>5,09; 6,05</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>6,23; 7,19</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="12">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
@@ -1856,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de medicamentos para el corazón</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16/24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2677</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2677</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 320</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4766</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1196</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 815</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13343</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1207</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 678</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14348</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1204</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25/34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2484</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2484</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 334</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2857</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1206</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 759</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 10738</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3209</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 714</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 8374</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2908</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35/44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>722</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3762</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3018</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>3674</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1357</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>6781</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>4131</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>265; 1962</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1014; 10230</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2579</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>180; 1601</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1032; 7205</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1288; 8477</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>616; 2545</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2980; 13792</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1852; 9074</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45/54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>4436</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>15585</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>4878</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>3326</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>5586</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>20865</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>8204</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2977; 6505</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3831; 30976</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2262; 9888</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>475; 2421</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2414; 9309</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>954; 8648</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>3914; 7935</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>8762; 32579</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>4503; 14675</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55/64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>12854</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>25737</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>18322</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3260</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>16179</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>9796</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>16115</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>41916</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>28118</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>10004; 16495</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>18011; 35941</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>12898; 25718</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1988; 5057</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>11239; 22926</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>5722; 16135</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>12934; 20408</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>31795; 53839</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>21228; 37112</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65/74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>18483</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>28860</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>27599</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>9624</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>17745</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>16574</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>28107</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>46605</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>44173</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>15244; 22360</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>21091; 37837</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>22285; 33626</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>7418; 12200</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>5434; 35207</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>12407; 21464</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>24207; 32455</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>20449; 71815</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>37046; 52749</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 y más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>27561</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>36831</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>37526</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>28988</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>50072</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>54010</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>56548</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>86903</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>91536</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>23483; 31603</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>29803; 46256</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>32131; 44218</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>25204; 33544</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>40702; 59686</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>46450; 62914</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>51343; 61969</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>75647; 99286</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>81753; 101581</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>64057</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>110776</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>88782</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>43920</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>97456</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>88228</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>107977</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>208232</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>177010</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>57872; 71037</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>75393; 135140</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>77924; 102049</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>38287; 49554</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>71815; 117977</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>76575; 101212</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>99206; 117057</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>166744; 246959</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>161849; 196307</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_COR-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_COR-Edad-trans_dic.xlsx
@@ -686,17 +686,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,17 +796,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -1766,17 +1766,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0; 320</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0; 4766</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0; 1196</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0; 1207</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0; 1204</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1929,17 +1929,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 334</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 2857</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 1206</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_COR-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_COR-Edad-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el corazón</t>
+          <t>Consumo de medicamentos para el corazón (tasa de respuesta: 99,66%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1559,7 +1559,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el corazón</t>
+          <t>Consumo de medicamentos para el corazón (tasa de respuesta: 99,66%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_COR-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_COR-Edad-trans_dic.xlsx
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>0,06%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,3</t>
+          <t>0,0; 0,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,24</t>
+          <t>0,0; 8,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,54</t>
+          <t>0,0; 0,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,41</t>
+          <t>0,0; 3,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,21</t>
+          <t>0,0; 1,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,42</t>
+          <t>0,0; 3,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,54</t>
+          <t>0,0; 0,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,54</t>
+          <t>0,0; 1,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,07</t>
+          <t>0,25; 2,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,29</t>
+          <t>0,34; 3,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,64</t>
+          <t>0,15; 1,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,23</t>
+          <t>0,29; 2,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,32</t>
+          <t>0,34; 1,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,18</t>
+          <t>0,45; 2,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,14; 4,67</t>
+          <t>2,28; 4,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,61; 4,94</t>
+          <t>0,66; 4,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,75</t>
+          <t>0,25; 1,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,3</t>
+          <t>0,63; 2,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,41; 2,86</t>
+          <t>1,33; 2,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,85; 3,16</t>
+          <t>0,92; 3,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,89; 13,0</t>
+          <t>7,27; 11,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,31; 10,6</t>
+          <t>5,25; 10,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,35; 3,43</t>
+          <t>1,36; 3,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,52; 7,19</t>
+          <t>3,37; 7,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,72; 7,44</t>
+          <t>4,44; 6,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,83; 8,18</t>
+          <t>4,89; 8,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>17,18%</t>
+          <t>17,87%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>13,13%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,17; 20,78</t>
+          <t>14,74; 21,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,14; 18,18</t>
+          <t>10,14; 17,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,46; 10,62</t>
+          <t>6,77; 11,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,2; 7,78</t>
+          <t>1,01; 7,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,88; 14,59</t>
+          <t>11,15; 15,21</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,09; 10,87</t>
+          <t>2,91; 11,02</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>28,6%</t>
+          <t>29,03%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>24,56%</t>
+          <t>24,62%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>24,37; 32,8</t>
+          <t>25,43; 33,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>19,64; 30,48</t>
+          <t>18,91; 30,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>18,82; 25,05</t>
+          <t>18,82; 24,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>17,42; 25,55</t>
+          <t>17,85; 25,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>22,3; 26,91</t>
+          <t>22,25; 27,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>19,63; 25,76</t>
+          <t>19,55; 26,26</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1456,12 +1456,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8,3; 10,19</t>
+          <t>7,69; 9,47</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,59; 6,43</t>
+          <t>3,58; 6,34</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,06; 6,55</t>
+          <t>4,95; 6,39</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,22; 5,29</t>
+          <t>3,16; 5,22</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1486,12 +1486,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,83; 8,05</t>
+          <t>6,45; 7,64</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3,85; 5,7</t>
+          <t>3,73; 5,57</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1781,12 +1781,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0; 815</t>
+          <t>0; 416</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0; 13343</t>
+          <t>0; 15748</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1796,12 +1796,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0; 678</t>
+          <t>0; 491</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0; 14348</t>
+          <t>0; 15411</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>159</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>159</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1944,12 +1944,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 759</t>
+          <t>0; 903</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 10738</t>
+          <t>0; 9694</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 714</t>
+          <t>0; 809</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 8374</t>
+          <t>0; 9945</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>722</t>
+          <t>825</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>824</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1357</t>
+          <t>1649</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -2092,12 +2092,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>265; 1962</t>
+          <t>260; 2127</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1014; 10230</t>
+          <t>1045; 11421</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -2107,12 +2107,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>180; 1601</t>
+          <t>165; 2086</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1032; 7205</t>
+          <t>925; 7477</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -2122,12 +2122,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>616; 2545</t>
+          <t>739; 3347</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2980; 13792</t>
+          <t>2843; 13645</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4436</t>
+          <t>4898</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>936</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>5586</t>
+          <t>5834</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -2255,12 +2255,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2977; 6505</t>
+          <t>3299; 7167</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3831; 30976</t>
+          <t>4158; 30129</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2270,12 +2270,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>475; 2421</t>
+          <t>376; 1887</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2414; 9309</t>
+          <t>2555; 9995</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -2285,12 +2285,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3914; 7935</t>
+          <t>3948; 7983</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8762; 32579</t>
+          <t>9443; 33100</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12854</t>
+          <t>11888</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>3560</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>16115</t>
+          <t>15448</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2418,12 +2418,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>10004; 16495</t>
+          <t>9425; 15218</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>18011; 35941</t>
+          <t>17816; 36503</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2433,12 +2433,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1988; 5057</t>
+          <t>2064; 5676</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>11239; 22926</t>
+          <t>10752; 22712</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -2448,12 +2448,12 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>12934; 20408</t>
+          <t>12499; 19248</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>31795; 53839</t>
+          <t>32197; 53124</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>18483</t>
+          <t>18670</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>9624</t>
+          <t>10243</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>28107</t>
+          <t>28914</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2581,12 +2581,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>15244; 22360</t>
+          <t>15394; 22242</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>21091; 37837</t>
+          <t>21098; 36783</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7418; 12200</t>
+          <t>7836; 13133</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5434; 35207</t>
+          <t>4559; 35935</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -2611,12 +2611,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>24207; 32455</t>
+          <t>24563; 33503</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>20449; 71815</t>
+          <t>19222; 72811</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>27561</t>
+          <t>25903</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>28988</t>
+          <t>28637</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>56548</t>
+          <t>54541</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2744,12 +2744,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>23483; 31603</t>
+          <t>22688; 29883</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>29803; 46256</t>
+          <t>28700; 45649</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>25204; 33544</t>
+          <t>24904; 32703</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>40702; 59686</t>
+          <t>41699; 60079</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2774,12 +2774,12 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>51343; 61969</t>
+          <t>49297; 59946</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>75647; 99286</t>
+          <t>75324; 101181</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>64057</t>
+          <t>62186</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -2869,7 +2869,7 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>43920</t>
+          <t>44441</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>107977</t>
+          <t>106627</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -2907,12 +2907,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>57872; 71037</t>
+          <t>55633; 68571</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>75393; 135140</t>
+          <t>75301; 133209</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -2922,12 +2922,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>38287; 49554</t>
+          <t>39474; 50938</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>71815; 117977</t>
+          <t>70447; 116420</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -2937,12 +2937,12 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>99206; 117057</t>
+          <t>98181; 116265</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>166744; 246959</t>
+          <t>161518; 241366</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_COR-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_COR-Edad-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -648,32 +648,32 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>1,4%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>0,12%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,45%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,67%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>0,06%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,64%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -701,32 +701,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 7,87</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>0,0; 0,63</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 8,54</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,83</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>0,0; 0,34</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,66</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -758,32 +758,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>0,69%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0,4%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>0,23%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,79%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,4%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>0,36%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0,22%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>0,11%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,46%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,22%</t>
         </is>
       </c>
     </row>
@@ -811,32 +811,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>0,0; 2,15</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,52</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0,0; 1,33</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,08</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,52</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>0,0; 1,29</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,74</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>0,0; 0,57</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,83</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,74</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,03%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,18%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,79%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,21%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,18%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1,48%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>0,74%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,94%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>1,48%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>1,0%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,83%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>0,77%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>1,07%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,83%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,31; 3,06</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,04</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>0,25; 2,05</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,34; 3,67</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,04</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>0,38; 2,33</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0,52; 3,41</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>0,15; 1,88</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0,29; 2,32</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0,52; 3,41</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>0,46; 1,91</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0,37; 1,83</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>0,34; 1,56</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,45; 2,15</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>0,37; 1,83</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>3,82%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1,64%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>3,38%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,48%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,64%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>1,47%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1,19%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>0,61%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>1,3%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>1,19%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>2,62%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1,42%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>1,96%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>2,02%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>1,42%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>2,14; 6,12</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0,76; 3,33</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>2,28; 4,95</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,66; 4,8</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,76; 3,33</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>0,73; 2,65</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0,34; 3,1</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>0,25; 1,24</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0,63; 2,47</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0,34; 3,1</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>1,79; 3,89</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0,78; 2,55</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>1,33; 2,68</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>0,92; 3,21</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>0,78; 2,55</t>
         </is>
       </c>
     </row>
@@ -1073,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>7,45%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7,81%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>9,17%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>7,59%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>7,81%</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>5,1%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3,86%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>2,34%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>5,07%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>3,86%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>6,28%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5,75%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>5,49%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>6,37%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>5,75%</t>
         </is>
       </c>
     </row>
@@ -1126,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>5,3; 10,55</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5,5; 10,96</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>7,27; 11,74</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>5,25; 10,76</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>5,5; 10,96</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>3,38; 7,12</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2,25; 6,35</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>1,36; 3,74</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>3,37; 7,12</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>2,25; 6,35</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>4,82; 7,88</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4,34; 7,59</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>4,44; 6,84</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>4,89; 8,07</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>4,34; 7,59</t>
         </is>
       </c>
     </row>
@@ -1183,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>13,32%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>15,0%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>17,87%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>13,87%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>15,0%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>7,58%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>8,78%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>8,85%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>3,92%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>8,78%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>10,23%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>11,85%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>13,13%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>7,05%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>11,85%</t>
         </is>
       </c>
     </row>
@@ -1236,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>9,64; 16,96</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>12,11; 18,27</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>14,74; 21,29</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>10,14; 17,68</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>12,11; 18,27</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>5,49; 10,43</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>6,58; 11,38</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>6,77; 11,34</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>1,01; 7,94</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>6,58; 11,38</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>8,23; 12,75</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>9,94; 14,15</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>11,15; 15,21</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>2,91; 11,02</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>9,94; 14,15</t>
         </is>
       </c>
     </row>
@@ -1293,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>25,26%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>25,61%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>29,03%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>24,27%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>25,61%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>21,94%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>25,46%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>21,64%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>21,43%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>25,46%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>23,24%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>25,52%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>24,62%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>22,55%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>25,52%</t>
         </is>
       </c>
     </row>
@@ -1346,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>19,86; 30,94</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>21,93; 30,18</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>25,43; 33,49</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>18,91; 30,08</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>21,93; 30,18</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>18,27; 26,44</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>21,9; 29,66</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>18,82; 24,72</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>17,85; 25,72</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>21,9; 29,66</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>20,26; 27,1</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>22,79; 28,32</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>22,25; 27,06</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>19,55; 26,26</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>22,79; 28,32</t>
         </is>
       </c>
     </row>
@@ -1403,47 +1403,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>5,82%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6,07%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>8,59%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>5,27%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>6,07%</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>5,0%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>5,64%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>5,57%</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>4,37%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>5,64%</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>5,4%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>5,85%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>7,01%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>4,8%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>5,85%</t>
         </is>
       </c>
     </row>
@@ -1456,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>4,96; 6,73</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>5,33; 6,98</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>7,69; 9,47</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>3,58; 6,34</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>5,33; 6,98</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>4,37; 5,86</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>4,89; 6,47</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>4,95; 6,39</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>3,16; 5,22</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>4,89; 6,47</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>4,81; 6,01</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>5,35; 6,48</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>6,45; 7,64</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>3,73; 5,57</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>5,35; 6,48</t>
         </is>
       </c>
     </row>
@@ -1590,47 +1590,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1680,27 +1680,27 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -1728,32 +1728,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>3081</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>81</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>2677</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3081</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>81</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>2677</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -1781,32 +1781,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>0; 17286</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>0; 416</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0; 15748</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17644</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>0; 491</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0; 15411</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1838,32 +1838,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>
@@ -1891,32 +1891,32 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>159</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>2484</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>848</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>159</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>2484</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>848</t>
         </is>
       </c>
     </row>
@@ -1944,32 +1944,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>0; 6096</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3209</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>0; 903</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0; 9694</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0; 3209</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>0; 7045</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2908</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>0; 809</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0; 9945</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>0; 2908</t>
         </is>
       </c>
     </row>
@@ -1986,47 +1986,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>9</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
         </is>
       </c>
     </row>
@@ -2039,47 +2039,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>3797</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>825</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>3762</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>457</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>3619</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3674</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>824</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>3018</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>3674</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>7417</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4131</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>1649</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>6781</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>4131</t>
         </is>
       </c>
     </row>
@@ -2092,47 +2092,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>1154; 11262</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2579</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>260; 2127</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1045; 11421</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0; 2579</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>1434; 8689</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1288; 8477</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>165; 2086</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>925; 7477</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>1288; 8477</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>3380; 14203</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1852; 9074</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>739; 3347</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>2843; 13645</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>1852; 9074</t>
         </is>
       </c>
     </row>
@@ -2149,47 +2149,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>37</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>14</t>
         </is>
       </c>
     </row>
@@ -2202,47 +2202,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>16193</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>4878</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>4898</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>15585</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>4878</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>6499</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3326</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>936</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>5281</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>3326</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>22692</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>8204</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>5834</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>20865</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>8204</t>
         </is>
       </c>
     </row>
@@ -2255,47 +2255,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>9088; 25938</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2262; 9888</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>3299; 7167</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>4158; 30129</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>2262; 9888</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>3243; 11680</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>954; 8648</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>376; 1887</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>2555; 9995</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>954; 8648</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>15470; 33680</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>4503; 14675</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>3948; 7983</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>9443; 33100</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>4503; 14675</t>
         </is>
       </c>
     </row>
@@ -2312,47 +2312,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>69</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>89</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>47</t>
         </is>
       </c>
     </row>
@@ -2365,47 +2365,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>27411</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>18322</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>11888</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>25737</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>18322</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>18369</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>9796</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>3560</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>16179</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>9796</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>45780</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>28118</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>15448</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>41916</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>28118</t>
         </is>
       </c>
     </row>
@@ -2418,47 +2418,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>19522; 38823</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>12898; 25718</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>9425; 15218</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>17816; 36503</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>12898; 25718</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>12196; 25664</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>5722; 16135</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>2064; 5676</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>10752; 22712</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>5722; 16135</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>35101; 57396</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>21228; 37112</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>12499; 19248</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>32197; 53124</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>21228; 37112</t>
         </is>
       </c>
     </row>
@@ -2475,47 +2475,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>112</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>62</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>174</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>133</t>
         </is>
       </c>
     </row>
@@ -2528,47 +2528,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>30796</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>27599</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>18670</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>28860</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>27599</t>
-        </is>
-      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>20471</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>16574</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
           <t>10243</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>17745</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>16574</t>
-        </is>
-      </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
+          <t>51267</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>44173</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
           <t>28914</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>46605</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>44173</t>
         </is>
       </c>
     </row>
@@ -2581,47 +2581,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>22289; 39215</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>22285; 33626</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>15394; 22242</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>21098; 36783</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>22285; 33626</t>
-        </is>
-      </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
+          <t>14815; 28162</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>12407; 21464</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
           <t>7836; 13133</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>4559; 35935</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>12407; 21464</t>
-        </is>
-      </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
+          <t>41261; 63904</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>37046; 52749</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
           <t>24563; 33503</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>19222; 72811</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>37046; 52749</t>
         </is>
       </c>
     </row>
@@ -2638,47 +2638,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>161</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>130</t>
-        </is>
-      </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
           <t>173</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>138</t>
-        </is>
-      </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
           <t>334</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>154</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>268</t>
         </is>
       </c>
     </row>
@@ -2691,47 +2691,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>41819</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>37526</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>25903</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>36831</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>37526</t>
-        </is>
-      </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
+          <t>56297</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>54010</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
           <t>28637</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>50072</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>54010</t>
-        </is>
-      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
+          <t>98117</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>91536</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
           <t>54541</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>86903</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>91536</t>
         </is>
       </c>
     </row>
@@ -2744,47 +2744,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>32883; 51227</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>32131; 44218</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
           <t>22688; 29883</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>28700; 45649</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>32131; 44218</t>
-        </is>
-      </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
+          <t>46893; 67844</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>46450; 62914</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
           <t>24904; 32703</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>41699; 60079</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>46450; 62914</t>
-        </is>
-      </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
+          <t>85528; 114429</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>81753; 101581</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
           <t>49297; 59946</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>75324; 101181</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>81753; 101581</t>
         </is>
       </c>
     </row>
@@ -2801,47 +2801,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
           <t>377</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>153</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>259</t>
-        </is>
-      </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
           <t>268</t>
         </is>
       </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>212</t>
-        </is>
-      </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
           <t>645</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>471</t>
         </is>
       </c>
     </row>
@@ -2854,47 +2854,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
+          <t>120017</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>88782</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
           <t>62186</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>110776</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>88782</t>
-        </is>
-      </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
+          <t>110301</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>88228</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
           <t>44441</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>97456</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>88228</t>
-        </is>
-      </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
+          <t>230318</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>177010</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
           <t>106627</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>208232</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>177010</t>
         </is>
       </c>
     </row>
@@ -2907,47 +2907,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
+          <t>102150; 138667</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>77924; 102049</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
           <t>55633; 68571</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>75301; 133209</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>77924; 102049</t>
-        </is>
-      </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
+          <t>96394; 129092</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>76575; 101212</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
           <t>39474; 50938</t>
         </is>
       </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>70447; 116420</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>76575; 101212</t>
-        </is>
-      </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
+          <t>205257; 256458</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>161849; 196307</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
           <t>98181; 116265</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>161518; 241366</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>161849; 196307</t>
         </is>
       </c>
     </row>
